--- a/Data/Sleeuwijk west LV netstations.xlsx
+++ b/Data/Sleeuwijk west LV netstations.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84231D14-CD0E-443E-ACD9-A9A5F17F41AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2D3E43-E789-4E97-93D5-40E8AD8DD561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sleeuwijk west LV netstations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -250,19 +247,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Results"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,12 +552,12 @@
       <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="1026" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -620,13 +604,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>19128659</v>
       </c>
       <c r="B2">
-        <f>_xlfn.IFNA(VLOOKUP(A2,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -668,13 +651,12 @@
         <v>51.814087963398869</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>19128665</v>
       </c>
       <c r="B3">
-        <f>_xlfn.IFNA(VLOOKUP(A3,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -716,13 +698,12 @@
         <v>51.812488694771773</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>19128671</v>
       </c>
       <c r="B4">
-        <f>_xlfn.IFNA(VLOOKUP(A4,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -764,13 +745,12 @@
         <v>51.816594250887768</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>19128673</v>
       </c>
       <c r="B5">
-        <f>_xlfn.IFNA(VLOOKUP(A5,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -812,13 +792,12 @@
         <v>51.817268087125129</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>19128709</v>
       </c>
       <c r="B6">
-        <f>_xlfn.IFNA(VLOOKUP(A6,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -860,13 +839,12 @@
         <v>51.815244079117107</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>19128715</v>
       </c>
       <c r="B7">
-        <f>_xlfn.IFNA(VLOOKUP(A7,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -908,13 +886,12 @@
         <v>51.812516599867578</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>19128717</v>
       </c>
       <c r="B8">
-        <f>_xlfn.IFNA(VLOOKUP(A8,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -956,13 +933,12 @@
         <v>51.8184889834058</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>19128719</v>
       </c>
       <c r="B9">
-        <f>_xlfn.IFNA(VLOOKUP(A9,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1004,13 +980,12 @@
         <v>51.819887379944738</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>19128723</v>
       </c>
       <c r="B10">
-        <f>_xlfn.IFNA(VLOOKUP(A10,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1052,13 +1027,12 @@
         <v>51.819311096587143</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>19128725</v>
       </c>
       <c r="B11">
-        <f>_xlfn.IFNA(VLOOKUP(A11,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1100,13 +1074,12 @@
         <v>51.817438970822529</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>19128727</v>
       </c>
       <c r="B12">
-        <f>_xlfn.IFNA(VLOOKUP(A12,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1148,13 +1121,12 @@
         <v>51.817350093518733</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>19128731</v>
       </c>
       <c r="B13">
-        <f>_xlfn.IFNA(VLOOKUP(A13,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1196,13 +1168,12 @@
         <v>51.819390313329201</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2.7989671968144701E+18</v>
       </c>
       <c r="B14">
-        <f>_xlfn.IFNA(VLOOKUP(A14,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1244,13 +1215,12 @@
         <v>51.813601424854618</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3.0528636989093101E+17</v>
       </c>
       <c r="B15">
-        <f>_xlfn.IFNA(VLOOKUP(A15,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1292,13 +1262,12 @@
         <v>51.811977555116478</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>4.9233634886504602E+17</v>
       </c>
       <c r="B16">
-        <f>_xlfn.IFNA(VLOOKUP(A16,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1340,12 +1309,11 @@
         <v>51.81311230262417</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8.0403231749315904E+17</v>
       </c>
       <c r="B17">
-        <f>_xlfn.IFNA(VLOOKUP(A17,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C17" t="s">
